--- a/2017/ML/roc/roc_svmL.xlsx
+++ b/2017/ML/roc/roc_svmL.xlsx
@@ -577,6 +577,11 @@
           <t xml:space="preserve">  0</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.6138867644673109</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -584,47 +589,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.6138867644673109</t>
+          <t xml:space="preserve"> 0:01:03.017484</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:03.017484</t>
+          <t xml:space="preserve"> 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> 122423</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122423</t>
+          <t xml:space="preserve"> 5604</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5604</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  133114</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  133114</t>
+          <t xml:space="preserve">  122423</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122423</t>
+          <t xml:space="preserve">  10691</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10691</t>
+          <t xml:space="preserve">  82631</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -634,12 +639,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  82631</t>
+          <t xml:space="preserve">  0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Falso-Neg:  0</t>
+          <t xml:space="preserve"> 0.6169969176574196</t>
         </is>
       </c>
     </row>
@@ -649,62 +654,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.6169969176574196</t>
+          <t xml:space="preserve"> 0:01:01.740056</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:01.740056</t>
+          <t xml:space="preserve"> 1000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1000</t>
+          <t xml:space="preserve"> 122423</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122423</t>
+          <t xml:space="preserve"> 5604</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5604</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  93316</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t xml:space="preserve">  0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t xml:space="preserve">  93316</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  93316</t>
+          <t xml:space="preserve">  122429</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122429</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve">  122423</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Falso-Neg:  122423</t>
+          <t xml:space="preserve"> 0.4325291432014647</t>
         </is>
       </c>
     </row>
@@ -795,47 +800,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.4325291432014647</t>
+          <t xml:space="preserve"> 0:01:50.226246</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:50.226246</t>
+          <t xml:space="preserve"> 0.001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.001</t>
+          <t xml:space="preserve"> 122363</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122363</t>
+          <t xml:space="preserve"> 5664</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5664</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  132524</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  132524</t>
+          <t xml:space="preserve">  122363</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122363</t>
+          <t xml:space="preserve">  10161</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10161</t>
+          <t xml:space="preserve">  83221</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -845,12 +850,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  83221</t>
+          <t xml:space="preserve">  0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Falso-Neg:  0</t>
+          <t xml:space="preserve"> 0.6142622076989038</t>
         </is>
       </c>
     </row>
@@ -860,47 +865,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.6142622076989038</t>
+          <t xml:space="preserve"> 0:01:02.883658</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:02.883658</t>
+          <t xml:space="preserve"> 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> 122363</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122363</t>
+          <t xml:space="preserve"> 5664</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5664</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  125631</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  125631</t>
+          <t xml:space="preserve">  122363</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122363</t>
+          <t xml:space="preserve">  3268</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3268</t>
+          <t xml:space="preserve">  90114</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -910,12 +915,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  90114</t>
+          <t xml:space="preserve">  0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Falso-Neg:  0</t>
+          <t xml:space="preserve"> 0.5823124522005145</t>
         </is>
       </c>
     </row>
@@ -925,62 +930,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.5823124522005145</t>
+          <t xml:space="preserve"> 0:01:01.736372</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:01.736372</t>
+          <t xml:space="preserve"> 1000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1000</t>
+          <t xml:space="preserve"> 122363</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122363</t>
+          <t xml:space="preserve"> 5664</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5664</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  93382</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t xml:space="preserve">  0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t xml:space="preserve">  93382</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  122363</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t xml:space="preserve">  0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  93382</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t xml:space="preserve">  122363</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Falso-Neg:  122363</t>
+          <t xml:space="preserve"> 0.4328350599086885</t>
         </is>
       </c>
     </row>
@@ -1071,47 +1076,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.4328350599086885</t>
+          <t xml:space="preserve"> 0:01:54.719134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:54.719134</t>
+          <t xml:space="preserve"> 0.001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.001</t>
+          <t xml:space="preserve"> 122401</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122401</t>
+          <t xml:space="preserve"> 5626</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5626</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  132343</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  132343</t>
+          <t xml:space="preserve">  122401</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122401</t>
+          <t xml:space="preserve">  9942</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9942</t>
+          <t xml:space="preserve">  83402</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1121,12 +1126,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  83402</t>
+          <t xml:space="preserve">  0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Falso-Neg:  0</t>
+          <t xml:space="preserve"> 0.6134232543048507</t>
         </is>
       </c>
     </row>
@@ -1136,47 +1141,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.6134232543048507</t>
+          <t xml:space="preserve"> 0:01:02.980980</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:02.980980</t>
+          <t xml:space="preserve"> 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> 122401</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122401</t>
+          <t xml:space="preserve"> 5626</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5626</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  127458</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  127458</t>
+          <t xml:space="preserve">  122401</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122401</t>
+          <t xml:space="preserve">  5057</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5057</t>
+          <t xml:space="preserve">  88287</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1186,12 +1191,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  88287</t>
+          <t xml:space="preserve">  0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Falso-Neg:  0</t>
+          <t xml:space="preserve"> 0.5907807828686644</t>
         </is>
       </c>
     </row>
@@ -1201,62 +1206,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.5907807828686644</t>
+          <t xml:space="preserve"> 0:01:01.567104</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:01.567104</t>
+          <t xml:space="preserve"> 1000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1000</t>
+          <t xml:space="preserve"> 122401</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122401</t>
+          <t xml:space="preserve"> 5626</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5626</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  93341</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t xml:space="preserve">  0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t xml:space="preserve">  93341</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  93341</t>
+          <t xml:space="preserve">  122404</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122404</t>
+          <t xml:space="preserve">  3</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3</t>
+          <t xml:space="preserve">  122401</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Falso-Neg:  122401</t>
+          <t xml:space="preserve"> 0.4326450207420798</t>
         </is>
       </c>
     </row>
@@ -1347,47 +1352,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.4326450207420798</t>
+          <t xml:space="preserve"> 0:01:53.930855</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:53.930855</t>
+          <t xml:space="preserve"> 0.001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.001</t>
+          <t xml:space="preserve"> 122407</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122407</t>
+          <t xml:space="preserve"> 5620</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5620</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  132441</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  132441</t>
+          <t xml:space="preserve">  122407</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122407</t>
+          <t xml:space="preserve">  10034</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10034</t>
+          <t xml:space="preserve">  83304</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1397,12 +1402,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  83304</t>
+          <t xml:space="preserve">  0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Falso-Neg:  0</t>
+          <t xml:space="preserve"> 0.6138774942640617</t>
         </is>
       </c>
     </row>
@@ -1412,47 +1417,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.6138774942640617</t>
+          <t xml:space="preserve"> 0:01:02.356135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:02.356135</t>
+          <t xml:space="preserve"> 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> 122407</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122407</t>
+          <t xml:space="preserve"> 5620</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5620</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  125617</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  125617</t>
+          <t xml:space="preserve">  122407</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122407</t>
+          <t xml:space="preserve">  3210</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3210</t>
+          <t xml:space="preserve">  90128</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1462,12 +1467,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  90128</t>
+          <t xml:space="preserve">  0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Falso-Neg:  0</t>
+          <t xml:space="preserve"> 0.5822475607777701</t>
         </is>
       </c>
     </row>
@@ -1477,62 +1482,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.5822475607777701</t>
+          <t xml:space="preserve"> 0:01:01.068661</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:01.068661</t>
+          <t xml:space="preserve"> 1000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1000</t>
+          <t xml:space="preserve"> 122407</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122407</t>
+          <t xml:space="preserve"> 5620</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5620</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  91738</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t xml:space="preserve">  0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t xml:space="preserve">  91738</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  91738</t>
+          <t xml:space="preserve">  124007</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  124007</t>
+          <t xml:space="preserve">  1600</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1600</t>
+          <t xml:space="preserve">  122407</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Falso-Neg:  122407</t>
+          <t xml:space="preserve"> 0.42521495283784094</t>
         </is>
       </c>
     </row>
@@ -1623,47 +1628,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.42521495283784094</t>
+          <t xml:space="preserve"> 0:01:54.026895</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:54.026895</t>
+          <t xml:space="preserve"> 0.001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.001</t>
+          <t xml:space="preserve"> 122340</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122340</t>
+          <t xml:space="preserve"> 5687</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5687</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  133599</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  133599</t>
+          <t xml:space="preserve">  122340</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122340</t>
+          <t xml:space="preserve">  11259</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11259</t>
+          <t xml:space="preserve">  82146</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1673,12 +1678,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  82146</t>
+          <t xml:space="preserve">  0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Falso-Neg:  0</t>
+          <t xml:space="preserve"> 0.6192449419453522</t>
         </is>
       </c>
     </row>
@@ -1688,47 +1693,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.6192449419453522</t>
+          <t xml:space="preserve"> 0:01:02.797856</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:02.797856</t>
+          <t xml:space="preserve"> 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1</t>
+          <t xml:space="preserve"> 122340</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122340</t>
+          <t xml:space="preserve"> 5687</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5687</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  122613</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122613</t>
+          <t xml:space="preserve">  122340</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122340</t>
+          <t xml:space="preserve">  273</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  273</t>
+          <t xml:space="preserve">  93132</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1738,12 +1743,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  93132</t>
+          <t xml:space="preserve">  0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Falso-Neg:  0</t>
+          <t xml:space="preserve"> 0.5683237154974623</t>
         </is>
       </c>
     </row>
@@ -1753,62 +1758,63 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.5683237154974623</t>
+          <t xml:space="preserve"> 0:01:01.445194</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0:01:01.445194</t>
+          <t xml:space="preserve"> 1000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1000</t>
+          <t xml:space="preserve"> 122340</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 122340</t>
+          <t xml:space="preserve"> 5687</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5687</t>
+          <t xml:space="preserve">  128027</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  128027</t>
+          <t xml:space="preserve">  93375</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t xml:space="preserve">  0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t xml:space="preserve">  93375</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  93375</t>
+          <t xml:space="preserve">  122370</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  122370</t>
+          <t xml:space="preserve">  30</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  30</t>
+          <t xml:space="preserve">  122340</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Falso-Neg:  122340</t>
+          <t xml:space="preserve"> 0.43280261419731625
+</t>
         </is>
       </c>
     </row>

--- a/2017/ML/roc/roc_svmL.xlsx
+++ b/2017/ML/roc/roc_svmL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jg_te\PycharmProjects\DDoS_Detection\2017\ML\roc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F0318F-C47B-4130-BA86-FF5401DAFEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E920FF1D-53F9-4A92-A4A2-19B1F8D1E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
   <si>
     <t>Time(s)</t>
   </si>
@@ -90,6 +90,15 @@
   <si>
     <t xml:space="preserve">0,43280261419731625
 </t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,11 +153,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -158,6 +178,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +495,7 @@
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,8 +532,17 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -550,8 +582,20 @@
       <c r="M2" s="3">
         <v>0.61388676446731005</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>100*H2/(H2+(1/2)*(K2+L2))</f>
+        <v>74.614503211965328</v>
+      </c>
+      <c r="O2">
+        <f>100*H2/(H2+K2)</f>
+        <v>59.508081176327622</v>
+      </c>
+      <c r="P2">
+        <f>H2/(H2+L2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -591,8 +635,20 @@
       <c r="M3" s="3">
         <v>0.61699691765741904</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f t="shared" ref="N3:N4" si="0">100*H3/(H3+(1/2)*(K3+L3))</f>
+        <v>74.767388244059887</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O4" si="1">100*H3/(H3+K3)</f>
+        <v>59.702809991514428</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="2">H3/(H3+L3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -632,8 +688,20 @@
       <c r="M4" s="3">
         <v>0.43252914320146402</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="M7" s="2"/>
@@ -646,15 +714,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:L4"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,8 +759,17 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -732,8 +809,20 @@
       <c r="M2">
         <v>0.61426199999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>100*H2/(H2+(1/2)*(K2+L2))</f>
+        <v>74.623643454582606</v>
+      </c>
+      <c r="O2">
+        <f>100*H2/(H2+K2)</f>
+        <v>59.51970970503541</v>
+      </c>
+      <c r="P2">
+        <f>H2/(H2+L2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -773,8 +862,20 @@
       <c r="M3">
         <v>0.58231200000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f t="shared" ref="N3:N4" si="0">100*H3/(H3+(1/2)*(K3+L3))</f>
+        <v>73.087444749731219</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O4" si="1">100*H3/(H3+K3)</f>
+        <v>57.588821378313888</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="2">H3/(H3+L3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -814,8 +915,20 @@
       <c r="M4">
         <v>0.43283500000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -829,7 +942,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -843,7 +956,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -864,15 +977,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,8 +1022,17 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -950,8 +1072,20 @@
       <c r="M2" s="3">
         <v>0.61342325430485001</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>100*H2/(H2+(1/2)*(K2+L2))</f>
+        <v>74.588365772507345</v>
+      </c>
+      <c r="O2">
+        <f>100*H2/(H2+K2)</f>
+        <v>59.474837587401545</v>
+      </c>
+      <c r="P2">
+        <f>H2/(H2+L2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -991,8 +1125,20 @@
       <c r="M3" s="3">
         <v>0.59078078286866398</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f t="shared" ref="N3:N4" si="0">100*H3/(H3+(1/2)*(K3+L3))</f>
+        <v>73.494471447571073</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O4" si="1">100*H3/(H3+K3)</f>
+        <v>58.095857381530983</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="2">H3/(H3+L3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1031,6 +1177,18 @@
       </c>
       <c r="M4" s="3">
         <v>0.432645020742079</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1040,15 +1198,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,8 +1243,17 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1126,8 +1293,20 @@
       <c r="M2">
         <v>0.61387749426406102</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>100*H2/(H2+(1/2)*(K2+L2))</f>
+        <v>74.611572665931163</v>
+      </c>
+      <c r="O2">
+        <f>100*H2/(H2+K2)</f>
+        <v>59.504353194530189</v>
+      </c>
+      <c r="P2">
+        <f>H2/(H2+L2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1167,8 +1346,20 @@
       <c r="M3">
         <v>0.58224756077776996</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f t="shared" ref="N3:N4" si="0">100*H3/(H3+(1/2)*(K3+L3))</f>
+        <v>73.091460611090881</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O4" si="1">100*H3/(H3+K3)</f>
+        <v>57.593808078669397</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="2">H3/(H3+L3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1207,6 +1398,18 @@
       </c>
       <c r="M4">
         <v>0.42521495283784</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1216,15 +1419,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,8 +1464,17 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1302,8 +1514,20 @@
       <c r="M2">
         <v>0.61924494194535196</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>100*H2/(H2+(1/2)*(K2+L2))</f>
+        <v>74.865524774650737</v>
+      </c>
+      <c r="O2">
+        <f>100*H2/(H2+K2)</f>
+        <v>59.828056688477453</v>
+      </c>
+      <c r="P2">
+        <f>H2/(H2+L2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1343,8 +1567,20 @@
       <c r="M3">
         <v>0.56832371549746197</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f t="shared" ref="N3:N4" si="0">100*H3/(H3+(1/2)*(K3+L3))</f>
+        <v>72.430819509076059</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O4" si="1">100*H3/(H3+K3)</f>
+        <v>56.777678770327469</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="2">H3/(H3+L3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1383,6 +1619,18 @@
       </c>
       <c r="M4" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1392,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,9 +1652,10 @@
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1443,8 +1692,17 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1496,8 +1754,20 @@
         <f>AVERAGE('Test 0'!M2,'Test 1'!M2,'Test 2'!M2,'Test 3'!M2,'Test 4'!M2)</f>
         <v>0.61493889099631471</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>AVERAGE('Test 0'!N2,'Test 1'!N2,'Test 2'!N2,'Test 3'!N2,'Test 4'!N2)</f>
+        <v>74.660721975927444</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE('Test 0'!O2,'Test 1'!O2,'Test 2'!O2,'Test 3'!O2,'Test 4'!O2)</f>
+        <v>59.567007670354442</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE('Test 0'!P2,'Test 1'!P2,'Test 2'!P2,'Test 3'!P2,'Test 4'!P2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1549,8 +1819,20 @@
         <f>AVERAGE('Test 0'!M3,'Test 1'!M3,'Test 2'!M3,'Test 3'!M3,'Test 4'!M3)</f>
         <v>0.58813219536026307</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f>AVERAGE('Test 0'!N3,'Test 1'!N3,'Test 2'!N3,'Test 3'!N3,'Test 4'!N3)</f>
+        <v>73.374316912305829</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE('Test 0'!O3,'Test 1'!O3,'Test 2'!O3,'Test 3'!O3,'Test 4'!O3)</f>
+        <v>57.951795120071232</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE('Test 0'!P3,'Test 1'!P3,'Test 2'!P3,'Test 3'!P3,'Test 4'!P3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1601,6 +1883,18 @@
       <c r="M4" s="3">
         <f>AVERAGE('Test 0'!M4,'Test 1'!M4,'Test 2'!M4,'Test 3'!M4,'Test 4'!M4)</f>
         <v>0.43080602919534577</v>
+      </c>
+      <c r="N4">
+        <f>AVERAGE('Test 0'!N4,'Test 1'!N4,'Test 2'!N4,'Test 3'!N4,'Test 4'!N4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" t="e">
+        <f>AVERAGE('Test 0'!O4,'Test 1'!O4,'Test 2'!O4,'Test 3'!O4,'Test 4'!O4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE('Test 0'!P4,'Test 1'!P4,'Test 2'!P4,'Test 3'!P4,'Test 4'!P4)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
